--- a/site/StructureDefinition-operation.xlsx
+++ b/site/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-operation.xlsx
+++ b/site/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-operation.xlsx
+++ b/site/StructureDefinition-operation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/operation</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/operation</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1016,7 +1016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient)
 </t>
   </si>
   <si>
@@ -1403,7 +1403,7 @@
     <t>If complications are only expressed by the narrative text, they can be captured using the CodeableConcept.text.</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/obds-op-komplikation-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/obds-op-komplikation-vs</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1937,7 +1937,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.0546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.70703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5502,7 +5502,7 @@
         <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>85</v>
@@ -5956,7 +5956,7 @@
         <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>74</v>
